--- a/biology/Mycologie/Rhytisma/Rhytisma.xlsx
+++ b/biology/Mycologie/Rhytisma/Rhytisma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhytisma est un genre de champignons (Fungi) ascomycètes de la famille des Rhytismataceae. Ces champignons phytopathogènes impactent les feuilles des arbres angiospermes. Rhytisma acerinum dont les hôtes sont les Érables est l'espèce type de ce genre. Les symptômes sont causés par leur présence sont souvent des pustules noires bien visibles. Ces infections, quoique parfois importantes, ne provoquent pas de défoliation prématurée et sont généralement peu nuisibles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhytisma est un genre de champignons (Fungi) ascomycètes de la famille des Rhytismataceae. Ces champignons phytopathogènes impactent les feuilles des arbres angiospermes. Rhytisma acerinum dont les hôtes sont les Érables est l'espèce type de ce genre. Les symptômes sont causés par leur présence sont souvent des pustules noires bien visibles. Ces infections, quoique parfois importantes, ne provoquent pas de défoliation prématurée et sont généralement peu nuisibles.
 Il s'agit par exemple de Rhytisma rhododendrii sur les Rhododendrons, Rhytisma ilicis sur le genre Ilex, Rhytisma lonicericola sur les Chèvrefeuilles, Rhytisma salicinum sur les Saules, Rhytisma juglandis sur le Marronnier, Rhytisma andromedae sur l'Andromède et Rhytisma ulmi sur les Ormes.
 	Quelques espèces de Rhytisma
 			Stroma de Rhytisma acerinum
@@ -519,9 +531,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon Index Fungorum[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon Index Fungorum :
 Rhytisma acerinum (Pers.) Fr., 1819
 Rhytisma americanum Hudler &amp; Banik, 1998
 Rhytisma andromedae (Pers.) Fr., 1819
@@ -580,9 +594,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rhytisma a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rhytisma a pour synonymes :
 Melanosorus De Not., 1847
 Pachyrhytisma Höhn., 1917
 Placuntium Ehrenb., 1818
